--- a/data/YASPORBI/YASPORBI TO 3 SM 2.xlsx
+++ b/data/YASPORBI/YASPORBI TO 3 SM 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="SAIN TO 3 SM 2" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="334">
   <si>
     <t>nisn</t>
   </si>
@@ -1015,6 +1015,9 @@
   </si>
   <si>
     <t>1162013 - ILMU HUKUM - AR-RANIRY</t>
+  </si>
+  <si>
+    <t>RATA" SOSHUM TO 3 SM 2</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1089,11 +1092,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1106,6 +1124,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3794,8 +3816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:AN40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3965,97 +3987,97 @@
       <c r="C2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -8461,17 +8483,140 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>